--- a/test/stock.xlsx
+++ b/test/stock.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="16020" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Romberg es klarika</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>qty</t>
   </si>
@@ -27,9 +24,6 @@
     <t>set</t>
   </si>
   <si>
-    <t>card</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -54,28 +48,37 @@
     <t>rav</t>
   </si>
   <si>
-    <t>gm</t>
-  </si>
-  <si>
-    <t>Uborka; a tengereszgyalogos</t>
-  </si>
-  <si>
-    <t>Szaponin tabornok</t>
-  </si>
-  <si>
-    <t>Orjongo csigafarm</t>
-  </si>
-  <si>
-    <t>Abbitacel tutajkormany</t>
-  </si>
-  <si>
-    <t>Sargabogre alaku urhajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alakvalto kocsonya </t>
-  </si>
-  <si>
-    <t>Ex; zsirsertes kiralyfi</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Badlands</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>barrin, master wizard</t>
+  </si>
+  <si>
+    <t>mox jet</t>
+  </si>
+  <si>
+    <t>volcanic island</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>watery grave</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Power artifact</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,21 +432,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -451,13 +457,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,18 +479,18 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -503,13 +509,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
